--- a/biology/Botanique/Helia_alata/Helia_alata.xlsx
+++ b/biology/Botanique/Helia_alata/Helia_alata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helia alata est une espèce de plante herbacées de la moité nord de l'Amérique du Sud, appartenant à la famille des Gentianaceae.
-Elle est connue en Guyane comme aman etni (Palikur), bois creux[3], grand centorel (créole), silikaleipo sili (Wayãpi), tabaco-bravo (Portugais) (noms partagés avec Chelonanthus purpurascens)[4]. On le connaît ailleurs au Suriname sous les noms de pepiatamit (Caribe), pipjataner, sabama tabaka, todo tabaka, todo tabalso, ou au Guyana yuri-balli (Arawak), wild tobacco[5], deer tobacco, ground itch bush[6].
+Elle est connue en Guyane comme aman etni (Palikur), bois creux, grand centorel (créole), silikaleipo sili (Wayãpi), tabaco-bravo (Portugais) (noms partagés avec Chelonanthus purpurascens). On le connaît ailleurs au Suriname sous les noms de pepiatamit (Caribe), pipjataner, sabama tabaka, todo tabaka, todo tabalso, ou au Guyana yuri-balli (Arawak), wild tobacco, deer tobacco, ground itch bush.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Helia alata est une Herbacée ou un sous-arbrisseau, non ramifié à peu ramifié, atteignant jusqu'à 2,5 m de haut.
 Les tiges et branches, de diamètre atteignant jusqu'à 1,1 cm, sont fortement quadrangulaires, à 4 angles et 4 ailes larges de 0,1-1,3 mm.
@@ -527,12 +541,12 @@
 La corolle est blanche, crème, avec une tache vert foncé à l'apex de chaque lobe de la corolle. Elle est en forme d'entonnoir à campanulée, longue de 20-50 mm pour 8-21 mm de large à l'embouchure, et des lobes ovales, à apex obtus ou acuminé, mesurant 3-11 x 4-13 mm.
 Les étamines sont exsertes ou non, avec des filets droits ou courbés vers le bas près de l'anthère, longs de 14-40 mm.
 Les anthères sont blanches à vert pâle, de forme oblongue, droites à légèrement incurvées et longues de 2-3,8 mm.
-L'exine du pollen avec le muri fragmenté de façon allongée ou en forme de bouton, épaissis le long de la zone équatoriale[7],[8],[9],[10].
+L'exine du pollen avec le muri fragmenté de façon allongée ou en forme de bouton, épaissis le long de la zone équatoriale.
 Le pistil est long de 24-34 mm.
 L'ovaire mesure 4,4-5,6 x 2,1-2,6 mm.
 Le style est long de 14-23 mm, avec les lobes du stigmate elliptiques à obovales, mesurant 2,8-4,4 x 1,1-2,3 mm.
 Le fruit est noueux, brun, mesurant 8-23 x 3-10 mm.
-Les graines sont brunes, mesurant 0,1-0,4 mm de diamètre[11],[5].
+Les graines sont brunes, mesurant 0,1-0,4 mm de diamètre,.
 Helia alata est souvent confondu avec Helia grandiflora.
 </t>
         </is>
@@ -562,9 +576,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Helia alata sur le Bouclier des Guyanes : au Venezuela, à Trinidad, dans le Roraima brésilien et les Guyanes[5]. Selon certaines source, il serait aussi présent du sud du Mexique au sud du Brésil[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Helia alata sur le Bouclier des Guyanes : au Venezuela, à Trinidad, dans le Roraima brésilien et les Guyanes. Selon certaines source, il serait aussi présent du sud du Mexique au sud du Brésil.
 </t>
         </is>
       </c>
@@ -593,19 +609,21 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Helia alata pousse dans les forêts humides, les savanes et broussailles, le long des cours d'eau et des bords de routes, le plus souvent sur des sols sablonneux blancs pauvres en nutriments, mais aussi sur des sols argileux et latéritiques et rarement sur des sols rocailleux, à 0-2 255 m d'altitude. Il fleurit et fructifie tout au long de l'année[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Helia alata pousse dans les forêts humides, les savanes et broussailles, le long des cours d'eau et des bords de routes, le plus souvent sur des sols sablonneux blancs pauvres en nutriments, mais aussi sur des sols argileux et latéritiques et rarement sur des sols rocailleux, à 0-2 255 m d'altitude. Il fleurit et fructifie tout au long de l'année.
 Des relations complexes entre foumis, plantes et chauve-souris ont été mise en évidences avec Helia alata : cette espèce pionnière est pollinisée par les chauves-souris, et ses graines sont dispersées à la fois par barochorie et anémochorie.
 Elle pousse en groupes dans des parcelles où cohabitent des individus vivants (dont les nectaires circum-floraux attirent les fourmis), et des individus morts (dont les tiges creuses desséchées - qui peuvent rester debout pendant 2 ans - abritent des colonies de fourmis).
 Les ouvrières des espèces de foumis nichant dans les tiges séchées, ainsi que celles d'espèces nichant au sol, exploitent les nectaires circum-floraux des individus vivants de H. alata dans les mêmes parcelles pendant la journée, mais sont absentes la nuit (lorsque la pollinisation par les chauves-souris a lieu) sur 60,5 % des plantes. En visitant les nectaires circum-floraux, les fourmis (principalement Pseudomyrmex gracilis qui niche dans des tiges desséchées) protègent indirectement les fleurs contre les insectes herbivores (mais pas le feuillage de la plante).
 Il s'agit d'une association opportuniste stable où les colonies de fourmis sont abritées par une génération de H. alata morts tandis que les individus vivants à proximité, appartenant à la génération suivante, leur fournissent du nectar, et en retour, les fourmis protègent leurs fleurs contre les herbivores.
-Cette relation co-évolutive a pu favoriser la sélection d'individus de H alata investissant de l'énergie dans le bois pour résister pendant des années lorsque les tiges sont sèches[12],[13].
+Cette relation co-évolutive a pu favoriser la sélection d'individus de H alata investissant de l'énergie dans le bois pour résister pendant des années lorsque les tiges sont sèches,.
 Helia alata a été étudié sous divers aspects : 
-sa phylogénie[14]
-l'anatomie de ses fleurs[15]
-ses métabolites secondaires[16]
-ses nectaires extrafloraux[17]</t>
+sa phylogénie
+l'anatomie de ses fleurs
+ses métabolites secondaires
+ses nectaires extrafloraux</t>
         </is>
       </c>
     </row>
@@ -633,14 +651,16 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, les Palikur préparent un remède très amer qui nettoie la bile, et un bain pour une traitement contre la gale[4]. Sa racine très amère, est aussi réputée fébrifuge et employée contre les obstructions viscérales[3].
-Les feuilles ont été utilisées pour soulager les démangeaisons au Suriname et comme amer au Guyana[5].
-Helia alata est aussi connu pour ses vertus fébrifuges parliculièrement dans un contexte malarial, ce qui serait lié à la présence de séco-iridoïdes[18],[19].
-Helia alata produit des composés antifongiques[20].
-Helia alata a été inscrite à la liste des plantes médicinales de Guyane à la pharmacopée française, en raison de ses usages traditionnels en Guyane pour la Purge (décoction de la plante entière), pour son action contre la gale (décoction en bain) les poux d’agouti, et tiques (sève), ses activités antipaludiques, et anti-leishmaniennes, son action dans le soin de Problèmes digestifs (infusion de feuilles et racines), contre les infections fongiques, dermatologiques, et les plaies cutanées[21].
-Certaines sources décrivent cete plante comme très toxique : un surdosage peut être fatal, mais aucun détail n'est apporté quant à la partie de plante concernée ou au mode de préparation[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, les Palikur préparent un remède très amer qui nettoie la bile, et un bain pour une traitement contre la gale. Sa racine très amère, est aussi réputée fébrifuge et employée contre les obstructions viscérales.
+Les feuilles ont été utilisées pour soulager les démangeaisons au Suriname et comme amer au Guyana.
+Helia alata est aussi connu pour ses vertus fébrifuges parliculièrement dans un contexte malarial, ce qui serait lié à la présence de séco-iridoïdes,.
+Helia alata produit des composés antifongiques.
+Helia alata a été inscrite à la liste des plantes médicinales de Guyane à la pharmacopée française, en raison de ses usages traditionnels en Guyane pour la Purge (décoction de la plante entière), pour son action contre la gale (décoction en bain) les poux d’agouti, et tiques (sève), ses activités antipaludiques, et anti-leishmaniennes, son action dans le soin de Problèmes digestifs (infusion de feuilles et racines), contre les infections fongiques, dermatologiques, et les plaies cutanées.
+Certaines sources décrivent cete plante comme très toxique : un surdosage peut être fatal, mais aucun détail n'est apporté quant à la partie de plante concernée ou au mode de préparation.
 </t>
         </is>
       </c>
@@ -669,9 +689,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a décrit cette plante pour la première fois sous le nom de Lisianthius alatus, et en a proposé le protologue suivant[22] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a décrit cette plante pour la première fois sous le nom de Lisianthius alatus, et en a proposé le protologue suivant : 
 « 2. LISYANTHUS (alatus) foliis ovato-oblongis, acutis ; floribus vireſcentibus. (TABULA 80.) 
 Planta annua. Radix ramoſa, fibroſa, ſublignoſi. Caulis tripedalis, rectus, nodoſas, intus cavus, tetragonus, angulis membranaceis.
 Folia ovato-oblonga, acuta, ſeſſilia, glabra, glauca, integerrima.
